--- a/Experiments/Gausian Random Data Points/time and error data.xlsx
+++ b/Experiments/Gausian Random Data Points/time and error data.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkPlace\github projects\POCS_CLUSTERING\Experiments\Gausian Random Data Points\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35A7176A-A569-4514-B06D-C71DE3C0A03E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42495C20-9725-4789-A112-F4CFB2CBD33F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{20A8FFDD-C9BD-4830-B981-4097899D7F7A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{20A8FFDD-C9BD-4830-B981-4097899D7F7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="10">
   <si>
     <t>Time [Sec]</t>
   </si>
@@ -99,8 +100,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,7 +420,7 @@
   <dimension ref="F4:U25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4:R6"/>
+      <selection activeCell="F4" sqref="F4:L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,7 +953,7 @@
         <v>0.8587499999999999</v>
       </c>
       <c r="I25">
-        <f t="shared" ref="H25:L25" si="0">SUM(I5:I24)</f>
+        <f t="shared" ref="I25:K25" si="0">SUM(I5:I24)</f>
         <v>74.06729</v>
       </c>
       <c r="K25">
@@ -1502,7 +1504,7 @@
         <v>0.8587499999999999</v>
       </c>
       <c r="F27">
-        <f t="shared" ref="E27:I27" si="0">SUM(F7:F26)</f>
+        <f t="shared" ref="F27:H27" si="0">SUM(F7:F26)</f>
         <v>74.06729</v>
       </c>
       <c r="H27">
@@ -2053,7 +2055,7 @@
         <v>0.83120000000000005</v>
       </c>
       <c r="G27">
-        <f t="shared" ref="F27:J27" si="0">SUM(G7:G26)</f>
+        <f t="shared" ref="G27:I27" si="0">SUM(G7:G26)</f>
         <v>40.851750000000003</v>
       </c>
       <c r="I27">
@@ -2070,7 +2072,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AEB1641-064E-499C-B19E-871D43449174}">
   <dimension ref="F9:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
@@ -2202,4 +2204,559 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32C6E5B9-915C-4DD4-8203-8C1BF4CEEDB0}">
+  <dimension ref="E6:U27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>4.9867630004882804E-3</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3887.6471606985001</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.22835993766784601</v>
+      </c>
+      <c r="I7" s="1">
+        <v>3795.7902805533099</v>
+      </c>
+      <c r="J7" s="1">
+        <v>4.9899999999999996E-3</v>
+      </c>
+      <c r="K7" s="1">
+        <v>6230</v>
+      </c>
+    </row>
+    <row r="8" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>8.9752674102783203E-3</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3705.4106078736299</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.46282052993774397</v>
+      </c>
+      <c r="I8" s="1">
+        <v>3706.8463233777302</v>
+      </c>
+      <c r="J8" s="1">
+        <v>9.9699999999999997E-3</v>
+      </c>
+      <c r="K8" s="1">
+        <v>4790</v>
+      </c>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+    </row>
+    <row r="9" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1.29668712615966E-2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3702.13512184608</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.68921566009521396</v>
+      </c>
+      <c r="I9" s="1">
+        <v>3700.3582798694902</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K9" s="1">
+        <v>3910</v>
+      </c>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+    </row>
+    <row r="10" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1.89518928527832E-2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>3703.14163849652</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.91162085533142001</v>
+      </c>
+      <c r="I10" s="1">
+        <v>3699.9180230556699</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="K10" s="1">
+        <v>3710</v>
+      </c>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+    </row>
+    <row r="11" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2.69012451171875E-2</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3701.5617227357998</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1.1430578231811499</v>
+      </c>
+      <c r="I11" s="1">
+        <v>3699.8622461364598</v>
+      </c>
+      <c r="J11" s="1">
+        <v>2.4E-2</v>
+      </c>
+      <c r="K11" s="1">
+        <v>3690</v>
+      </c>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+    </row>
+    <row r="12" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3.0913114547729399E-2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3702.1708197387902</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1.3674564361572199</v>
+      </c>
+      <c r="I12" s="1">
+        <v>3699.85024499561</v>
+      </c>
+      <c r="J12" s="1">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="K12" s="1">
+        <v>3690</v>
+      </c>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+    </row>
+    <row r="13" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>7</v>
+      </c>
+      <c r="F13" s="1">
+        <v>3.3908605575561503E-2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>3701.7976172804501</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1.59086513519287</v>
+      </c>
+      <c r="I13" s="1">
+        <v>3699.8472097724102</v>
+      </c>
+      <c r="J13" s="1">
+        <v>3.2899999999999999E-2</v>
+      </c>
+      <c r="K13" s="1">
+        <v>3690</v>
+      </c>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+    </row>
+    <row r="14" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>8</v>
+      </c>
+      <c r="F14" s="1">
+        <v>3.7895679473876898E-2</v>
+      </c>
+      <c r="G14" s="1">
+        <v>3701.9798623735001</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1.8142616748809799</v>
+      </c>
+      <c r="I14" s="1">
+        <v>3699.84642972656</v>
+      </c>
+      <c r="J14" s="1">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="K14" s="1">
+        <v>3690</v>
+      </c>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+    </row>
+    <row r="15" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>9</v>
+      </c>
+      <c r="F15" s="1">
+        <v>4.1887044906616197E-2</v>
+      </c>
+      <c r="G15" s="1">
+        <v>3701.88036585187</v>
+      </c>
+      <c r="H15" s="1">
+        <v>2.0366997718811</v>
+      </c>
+      <c r="I15" s="1">
+        <v>3699.8462315782499</v>
+      </c>
+      <c r="J15" s="1">
+        <v>4.19E-2</v>
+      </c>
+      <c r="K15" s="1">
+        <v>3690</v>
+      </c>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+    </row>
+    <row r="16" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16" s="1">
+        <v>4.5875072479247998E-2</v>
+      </c>
+      <c r="G16" s="1">
+        <v>3701.9318947313</v>
+      </c>
+      <c r="H16" s="1">
+        <v>2.2620689868927002</v>
+      </c>
+      <c r="I16" s="1">
+        <v>3699.8461819275299</v>
+      </c>
+      <c r="J16" s="1">
+        <v>4.6899999999999997E-2</v>
+      </c>
+      <c r="K16" s="1">
+        <v>3690</v>
+      </c>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+    </row>
+    <row r="17" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>11</v>
+      </c>
+      <c r="F17" s="1">
+        <v>4.9839019775390597E-2</v>
+      </c>
+      <c r="G17" s="1">
+        <v>3701.9044170130601</v>
+      </c>
+      <c r="H17" s="1">
+        <v>2.4874665737152002</v>
+      </c>
+      <c r="I17" s="1">
+        <v>3699.84616963083</v>
+      </c>
+      <c r="J17" s="1">
+        <v>5.2900000000000003E-2</v>
+      </c>
+      <c r="K17" s="1">
+        <v>3690</v>
+      </c>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+    </row>
+    <row r="18" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>12</v>
+      </c>
+      <c r="F18" s="1">
+        <v>5.3829669952392502E-2</v>
+      </c>
+      <c r="G18" s="1">
+        <v>3701.9188895566799</v>
+      </c>
+      <c r="H18" s="1">
+        <v>2.7099292278289702</v>
+      </c>
+      <c r="I18" s="1">
+        <v>3699.8461666143698</v>
+      </c>
+      <c r="J18" s="1">
+        <v>5.8799999999999998E-2</v>
+      </c>
+      <c r="K18" s="1">
+        <v>3690</v>
+      </c>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+    </row>
+    <row r="19" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>13</v>
+      </c>
+      <c r="F19" s="1">
+        <v>5.7839393615722601E-2</v>
+      </c>
+      <c r="G19" s="1">
+        <v>3701.91119970726</v>
+      </c>
+      <c r="H19" s="1">
+        <v>2.9343287944793701</v>
+      </c>
+      <c r="I19" s="1">
+        <v>3699.8461658802098</v>
+      </c>
+      <c r="J19" s="1">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="K19" s="1">
+        <v>3690</v>
+      </c>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+    </row>
+    <row r="20" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>14</v>
+      </c>
+      <c r="F20" s="1">
+        <v>6.182861328125E-2</v>
+      </c>
+      <c r="G20" s="1">
+        <v>3701.9152759400399</v>
+      </c>
+      <c r="H20" s="1">
+        <v>3.1916356086730899</v>
+      </c>
+      <c r="I20" s="1">
+        <v>3699.8461657026901</v>
+      </c>
+      <c r="J20" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K20" s="1">
+        <v>3690</v>
+      </c>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+    </row>
+    <row r="21" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>15</v>
+      </c>
+      <c r="F21" s="1">
+        <v>6.5818548202514607E-2</v>
+      </c>
+      <c r="G21" s="1">
+        <v>3701.9131080974598</v>
+      </c>
+      <c r="H21" s="1">
+        <v>3.4180347919464098</v>
+      </c>
+      <c r="I21" s="1">
+        <v>3699.8461656600098</v>
+      </c>
+      <c r="J21" s="1">
+        <v>7.5899999999999995E-2</v>
+      </c>
+      <c r="K21" s="1">
+        <v>3690</v>
+      </c>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+    </row>
+    <row r="22" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>16</v>
+      </c>
+      <c r="F22" s="1">
+        <v>6.9807291030883706E-2</v>
+      </c>
+      <c r="G22" s="1">
+        <v>3701.9142611570101</v>
+      </c>
+      <c r="H22" s="1">
+        <v>3.6394727230071999</v>
+      </c>
+      <c r="I22" s="1">
+        <v>3699.8461656497898</v>
+      </c>
+      <c r="J22" s="1">
+        <v>8.1900000000000001E-2</v>
+      </c>
+      <c r="K22" s="1">
+        <v>3690</v>
+      </c>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+    </row>
+    <row r="23" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>17</v>
+      </c>
+      <c r="F23" s="1">
+        <v>7.3796987533569294E-2</v>
+      </c>
+      <c r="G23" s="1">
+        <v>3701.91364683749</v>
+      </c>
+      <c r="H23" s="1">
+        <v>3.8608801364898602</v>
+      </c>
+      <c r="I23" s="1">
+        <v>3699.8461656473501</v>
+      </c>
+      <c r="J23" s="1">
+        <v>8.6900000000000005E-2</v>
+      </c>
+      <c r="K23" s="1">
+        <v>3690</v>
+      </c>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+    </row>
+    <row r="24" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>18</v>
+      </c>
+      <c r="F24" s="1">
+        <v>7.77888298034667E-2</v>
+      </c>
+      <c r="G24" s="1">
+        <v>3701.91397435818</v>
+      </c>
+      <c r="H24" s="1">
+        <v>4.0812909603118799</v>
+      </c>
+      <c r="I24" s="1">
+        <v>3699.8461656467798</v>
+      </c>
+      <c r="J24" s="1">
+        <v>9.2899999999999996E-2</v>
+      </c>
+      <c r="K24" s="1">
+        <v>3690</v>
+      </c>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+    </row>
+    <row r="25" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>19</v>
+      </c>
+      <c r="F25" s="1">
+        <v>8.1775188446044894E-2</v>
+      </c>
+      <c r="G25" s="1">
+        <v>3701.9137995537599</v>
+      </c>
+      <c r="H25" s="1">
+        <v>4.3086867332458398</v>
+      </c>
+      <c r="I25" s="1">
+        <v>3699.8461656466402</v>
+      </c>
+      <c r="J25" s="1">
+        <v>9.8900000000000002E-2</v>
+      </c>
+      <c r="K25" s="1">
+        <v>3690</v>
+      </c>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+    </row>
+    <row r="26" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>20</v>
+      </c>
+      <c r="F26" s="1">
+        <v>8.4767818450927707E-2</v>
+      </c>
+      <c r="G26" s="1">
+        <v>3701.9138929207502</v>
+      </c>
+      <c r="H26" s="1">
+        <v>4.5430600643157897</v>
+      </c>
+      <c r="I26" s="1">
+        <v>3699.8461656466102</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0.105</v>
+      </c>
+      <c r="K26" s="1">
+        <v>3690</v>
+      </c>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+    </row>
+    <row r="27" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <f>SUM(F7:F26)</f>
+        <v>0.94035291671752863</v>
+      </c>
+      <c r="H27">
+        <f t="shared" ref="H27:J27" si="0">SUM(H7:H26)</f>
+        <v>47.681212425231855</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>1.0497599999999998</v>
+      </c>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>